--- a/DATOS/IPC ORIGINAL/IPC_GENERAL_CCAA.xlsx
+++ b/DATOS/IPC ORIGINAL/IPC_GENERAL_CCAA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorie\Desktop\TRABAJO\MICRODATOS\IPC\GENERAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorie\Desktop\TRABAJO\CGT\Análisis de coyuntura económica\IPC\Nuevo calculo de IPC alternativo para inquilinos\reponderacionIPC_2\DATOS\IPC ORIGINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t>2002M01</t>
   </si>
@@ -928,6 +928,21 @@
   </si>
   <si>
     <t>CCAA</t>
+  </si>
+  <si>
+    <t>2025M08</t>
+  </si>
+  <si>
+    <t>2025M09</t>
+  </si>
+  <si>
+    <t>2025M10</t>
+  </si>
+  <si>
+    <t>2025M11</t>
+  </si>
+  <si>
+    <t>2025M12</t>
   </si>
 </sst>
 </file>
@@ -1299,9 +1314,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JX20"/>
+  <dimension ref="A1:KC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="JR1" workbookViewId="0">
+      <selection activeCell="KB27" sqref="KB27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1309,7 +1326,7 @@
     <col min="2" max="284" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>302</v>
       </c>
@@ -2162,8 +2179,23 @@
       <c r="JX1" s="2" t="s">
         <v>282</v>
       </c>
+      <c r="JY1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="JZ1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="KA1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="KB1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="KC1" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="2" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>283</v>
       </c>
@@ -3016,8 +3048,23 @@
       <c r="JX2" s="4">
         <v>119.321</v>
       </c>
+      <c r="JY2" s="4">
+        <v>119.309</v>
+      </c>
+      <c r="JZ2" s="4">
+        <v>119.10599999999999</v>
+      </c>
+      <c r="KA2" s="4">
+        <v>120.163</v>
+      </c>
+      <c r="KB2" s="4">
+        <v>120.139</v>
+      </c>
+      <c r="KC2" s="4">
+        <v>120.524</v>
+      </c>
     </row>
-    <row r="3" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>284</v>
       </c>
@@ -3870,8 +3917,23 @@
       <c r="JX3" s="4">
         <v>119.02500000000001</v>
       </c>
+      <c r="JY3" s="4">
+        <v>118.91200000000001</v>
+      </c>
+      <c r="JZ3" s="4">
+        <v>118.557</v>
+      </c>
+      <c r="KA3" s="4">
+        <v>119.47199999999999</v>
+      </c>
+      <c r="KB3" s="4">
+        <v>119.711</v>
+      </c>
+      <c r="KC3" s="4">
+        <v>120.01600000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>285</v>
       </c>
@@ -4724,8 +4786,23 @@
       <c r="JX4" s="4">
         <v>119.258</v>
       </c>
+      <c r="JY4" s="4">
+        <v>119.688</v>
+      </c>
+      <c r="JZ4" s="4">
+        <v>118.655</v>
+      </c>
+      <c r="KA4" s="4">
+        <v>119.205</v>
+      </c>
+      <c r="KB4" s="4">
+        <v>119.375</v>
+      </c>
+      <c r="KC4" s="4">
+        <v>119.791</v>
+      </c>
     </row>
-    <row r="5" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>286</v>
       </c>
@@ -5578,8 +5655,23 @@
       <c r="JX5" s="4">
         <v>120.35</v>
       </c>
+      <c r="JY5" s="4">
+        <v>120.41</v>
+      </c>
+      <c r="JZ5" s="4">
+        <v>119.68300000000001</v>
+      </c>
+      <c r="KA5" s="4">
+        <v>120.20099999999999</v>
+      </c>
+      <c r="KB5" s="4">
+        <v>120.03</v>
+      </c>
+      <c r="KC5" s="4">
+        <v>120.33199999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>287</v>
       </c>
@@ -6432,8 +6524,23 @@
       <c r="JX6" s="4">
         <v>118.32599999999999</v>
       </c>
+      <c r="JY6" s="4">
+        <v>118.53700000000001</v>
+      </c>
+      <c r="JZ6" s="4">
+        <v>117.759</v>
+      </c>
+      <c r="KA6" s="4">
+        <v>118.78400000000001</v>
+      </c>
+      <c r="KB6" s="4">
+        <v>119</v>
+      </c>
+      <c r="KC6" s="4">
+        <v>119.798</v>
+      </c>
     </row>
-    <row r="7" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>288</v>
       </c>
@@ -7286,8 +7393,23 @@
       <c r="JX7" s="4">
         <v>118.575</v>
       </c>
+      <c r="JY7" s="4">
+        <v>118.985</v>
+      </c>
+      <c r="JZ7" s="4">
+        <v>118.101</v>
+      </c>
+      <c r="KA7" s="4">
+        <v>119.125</v>
+      </c>
+      <c r="KB7" s="4">
+        <v>119.524</v>
+      </c>
+      <c r="KC7" s="4">
+        <v>119.991</v>
+      </c>
     </row>
-    <row r="8" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>289</v>
       </c>
@@ -8140,8 +8262,23 @@
       <c r="JX8" s="4">
         <v>119.504</v>
       </c>
+      <c r="JY8" s="4">
+        <v>119.437</v>
+      </c>
+      <c r="JZ8" s="4">
+        <v>119.033</v>
+      </c>
+      <c r="KA8" s="4">
+        <v>119.889</v>
+      </c>
+      <c r="KB8" s="4">
+        <v>120.411</v>
+      </c>
+      <c r="KC8" s="4">
+        <v>120.71299999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>290</v>
       </c>
@@ -8994,8 +9131,23 @@
       <c r="JX9" s="4">
         <v>120.119</v>
       </c>
+      <c r="JY9" s="4">
+        <v>119.932</v>
+      </c>
+      <c r="JZ9" s="4">
+        <v>119.64100000000001</v>
+      </c>
+      <c r="KA9" s="4">
+        <v>120.69499999999999</v>
+      </c>
+      <c r="KB9" s="4">
+        <v>120.92700000000001</v>
+      </c>
+      <c r="KC9" s="4">
+        <v>121.476</v>
+      </c>
     </row>
-    <row r="10" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>291</v>
       </c>
@@ -9848,8 +10000,23 @@
       <c r="JX10" s="4">
         <v>118.062</v>
       </c>
+      <c r="JY10" s="4">
+        <v>118.248</v>
+      </c>
+      <c r="JZ10" s="4">
+        <v>117.655</v>
+      </c>
+      <c r="KA10" s="4">
+        <v>118.16200000000001</v>
+      </c>
+      <c r="KB10" s="4">
+        <v>118.46</v>
+      </c>
+      <c r="KC10" s="4">
+        <v>118.82899999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>292</v>
       </c>
@@ -10702,8 +10869,23 @@
       <c r="JX11" s="4">
         <v>119.419</v>
       </c>
+      <c r="JY11" s="4">
+        <v>119.458</v>
+      </c>
+      <c r="JZ11" s="4">
+        <v>118.996</v>
+      </c>
+      <c r="KA11" s="4">
+        <v>119.767</v>
+      </c>
+      <c r="KB11" s="4">
+        <v>120.04</v>
+      </c>
+      <c r="KC11" s="4">
+        <v>120.291</v>
+      </c>
     </row>
-    <row r="12" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>293</v>
       </c>
@@ -11556,8 +11738,23 @@
       <c r="JX12" s="4">
         <v>119.22199999999999</v>
       </c>
+      <c r="JY12" s="4">
+        <v>118.83199999999999</v>
+      </c>
+      <c r="JZ12" s="4">
+        <v>118.38500000000001</v>
+      </c>
+      <c r="KA12" s="4">
+        <v>119.405</v>
+      </c>
+      <c r="KB12" s="4">
+        <v>119.926</v>
+      </c>
+      <c r="KC12" s="4">
+        <v>120.15900000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>294</v>
       </c>
@@ -12410,8 +12607,23 @@
       <c r="JX13" s="4">
         <v>119.259</v>
       </c>
+      <c r="JY13" s="4">
+        <v>119.51900000000001</v>
+      </c>
+      <c r="JZ13" s="4">
+        <v>119.026</v>
+      </c>
+      <c r="KA13" s="4">
+        <v>119.798</v>
+      </c>
+      <c r="KB13" s="4">
+        <v>120.286</v>
+      </c>
+      <c r="KC13" s="4">
+        <v>120.46899999999999</v>
+      </c>
     </row>
-    <row r="14" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>295</v>
       </c>
@@ -13264,8 +13476,23 @@
       <c r="JX14" s="4">
         <v>117.321</v>
       </c>
+      <c r="JY14" s="4">
+        <v>117.28</v>
+      </c>
+      <c r="JZ14" s="4">
+        <v>117.639</v>
+      </c>
+      <c r="KA14" s="4">
+        <v>118.56699999999999</v>
+      </c>
+      <c r="KB14" s="4">
+        <v>118.712</v>
+      </c>
+      <c r="KC14" s="4">
+        <v>119.383</v>
+      </c>
     </row>
-    <row r="15" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>296</v>
       </c>
@@ -14118,8 +14345,23 @@
       <c r="JX15" s="4">
         <v>118.491</v>
       </c>
+      <c r="JY15" s="4">
+        <v>118.498</v>
+      </c>
+      <c r="JZ15" s="4">
+        <v>118.09099999999999</v>
+      </c>
+      <c r="KA15" s="4">
+        <v>118.663</v>
+      </c>
+      <c r="KB15" s="4">
+        <v>119.321</v>
+      </c>
+      <c r="KC15" s="4">
+        <v>119.672</v>
+      </c>
     </row>
-    <row r="16" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>297</v>
       </c>
@@ -14972,8 +15214,23 @@
       <c r="JX16" s="4">
         <v>119.596</v>
       </c>
+      <c r="JY16" s="4">
+        <v>119.283</v>
+      </c>
+      <c r="JZ16" s="4">
+        <v>118.45</v>
+      </c>
+      <c r="KA16" s="4">
+        <v>119.631</v>
+      </c>
+      <c r="KB16" s="4">
+        <v>119.86199999999999</v>
+      </c>
+      <c r="KC16" s="4">
+        <v>120.08199999999999</v>
+      </c>
     </row>
-    <row r="17" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>298</v>
       </c>
@@ -15826,8 +16083,23 @@
       <c r="JX17" s="4">
         <v>119.29</v>
       </c>
+      <c r="JY17" s="4">
+        <v>119.35</v>
+      </c>
+      <c r="JZ17" s="4">
+        <v>118.996</v>
+      </c>
+      <c r="KA17" s="4">
+        <v>119.69799999999999</v>
+      </c>
+      <c r="KB17" s="4">
+        <v>119.941</v>
+      </c>
+      <c r="KC17" s="4">
+        <v>120.22</v>
+      </c>
     </row>
-    <row r="18" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>299</v>
       </c>
@@ -16680,8 +16952,23 @@
       <c r="JX18" s="4">
         <v>118.83199999999999</v>
       </c>
+      <c r="JY18" s="4">
+        <v>118.83</v>
+      </c>
+      <c r="JZ18" s="4">
+        <v>118.37</v>
+      </c>
+      <c r="KA18" s="4">
+        <v>119.12</v>
+      </c>
+      <c r="KB18" s="4">
+        <v>119.384</v>
+      </c>
+      <c r="KC18" s="4">
+        <v>120.117</v>
+      </c>
     </row>
-    <row r="19" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>300</v>
       </c>
@@ -17534,8 +17821,23 @@
       <c r="JX19" s="4">
         <v>118.97799999999999</v>
       </c>
+      <c r="JY19" s="4">
+        <v>119.11499999999999</v>
+      </c>
+      <c r="JZ19" s="4">
+        <v>118.815</v>
+      </c>
+      <c r="KA19" s="4">
+        <v>119.08799999999999</v>
+      </c>
+      <c r="KB19" s="4">
+        <v>119.23699999999999</v>
+      </c>
+      <c r="KC19" s="4">
+        <v>120.023</v>
+      </c>
     </row>
-    <row r="20" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>301</v>
       </c>
@@ -18387,6 +18689,21 @@
       </c>
       <c r="JX20" s="4">
         <v>119.592</v>
+      </c>
+      <c r="JY20" s="4">
+        <v>119.754</v>
+      </c>
+      <c r="JZ20" s="4">
+        <v>118.883</v>
+      </c>
+      <c r="KA20" s="4">
+        <v>120.28400000000001</v>
+      </c>
+      <c r="KB20" s="4">
+        <v>120.468</v>
+      </c>
+      <c r="KC20" s="4">
+        <v>121.029</v>
       </c>
     </row>
   </sheetData>
